--- a/trend_results/Rivers/ManawatuatWhirokino_a9c872df4b.xlsx
+++ b/trend_results/Rivers/ManawatuatWhirokino_a9c872df4b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.301924123033672</v>
+        <v>0.698075876966328</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.999992101260329</v>
+        <v>7.8987396709973e-06</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.563070351662225</v>
+        <v>0.436929648337775</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.999955957460693</v>
+        <v>4.40425393070099e-05</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.752725387602148</v>
+        <v>0.06545548587024801</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="H28" t="n">
-        <v>0.335</v>
+        <v>0.423611111111111</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>0.315</v>
+        <v>0.35</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0014739827064369</v>
+        <v>-0.0075295164917541</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0024144823242962</v>
+        <v>-0.0178475641451083</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0068056213133435</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.467931017916483</v>
+        <v>-2.15129042621546</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -3007,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.999999998418111</v>
+        <v>0.159329215660382</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0212765957446809</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.238297872340426</v>
+        <v>0.826589595375723</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.023</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0007567707562527</v>
+        <v>-0.0149556414922657</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0009792225201072</v>
+        <v>-0.0500464662834715</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0005391143911439</v>
+        <v>0.0066681880419899</v>
       </c>
       <c r="N29" t="n">
-        <v>-3.29030763588163</v>
+        <v>-0.159782494575488</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.987639909356799</v>
+        <v>0.811996389560104</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0042372881355932</v>
+        <v>0.0284090909090909</v>
       </c>
       <c r="H30" t="n">
-        <v>0.669491525423729</v>
+        <v>0.221590909090909</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>210</v>
+        <v>0.021</v>
       </c>
       <c r="K30" t="n">
-        <v>-5.01717032967033</v>
+        <v>-0.0001294785522965</v>
       </c>
       <c r="L30" t="n">
-        <v>-10.6345117980155</v>
+        <v>-0.0003874879846412</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.760079945121629</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-2.38912872841444</v>
+        <v>-0.616564534745274</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3189,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.814934834899566</v>
+        <v>0.925798159582193</v>
       </c>
       <c r="G31" t="n">
-        <v>0.170403587443946</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.807174887892377</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0293816104948973</v>
+        <v>190</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0001012122015443</v>
+        <v>-3.96085088224274</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0005266440907835</v>
+        <v>-11.4163805909083</v>
       </c>
       <c r="M31" t="n">
-        <v>7.18691531140056e-05</v>
+        <v>0.554942581973314</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.344474655539817</v>
+        <v>-2.08465835907513</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.801153027965736</v>
+        <v>0.477433172728064</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0138248847926267</v>
+        <v>0.212121212121212</v>
       </c>
       <c r="H32" t="n">
-        <v>0.820276497695853</v>
+        <v>0.7939393939393939</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>0.51</v>
+        <v>0.0276009739434872</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0030103021978022</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0069675868257799</v>
+        <v>-0.0004031900757678</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0023181815291729</v>
+        <v>0.0004968439090829</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.590255332902392</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,14 +3371,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3386,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.6978079462330919</v>
+        <v>0.1237197503767</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0127118644067797</v>
+        <v>0.0645161290322581</v>
       </c>
       <c r="H33" t="n">
-        <v>0.843220338983051</v>
+        <v>0.232258064516129</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.014</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0013710342620046</v>
+        <v>0.0001667047010497</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0054719982563825</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0035010872721938</v>
+        <v>0.0004268185801928</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.243522959503494</v>
+        <v>1.19074786464107</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3462,14 +3462,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3477,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.999999270118758</v>
+        <v>0.117021432611563</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="H34" t="n">
-        <v>0.542986425339366</v>
+        <v>0.911392405063291</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>0.075</v>
+        <v>0.497</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0022203647416413</v>
+        <v>0.0063216346153846</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0030355433531273</v>
+        <v>-0.0030103021978022</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0014295499021526</v>
+        <v>0.0132188556173905</v>
       </c>
       <c r="N34" t="n">
-        <v>-2.96048632218845</v>
+        <v>1.27195867512769</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,11 +3553,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -3568,31 +3568,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.999968379522439</v>
+        <v>0.060689962337242</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.885593220338983</v>
+        <v>0.605882352941176</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>18.8</v>
+        <v>7.525</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.7483505639097749</v>
+        <v>-0.0121396266313644</v>
       </c>
       <c r="L35" t="n">
-        <v>-1.16010606506556</v>
+        <v>-0.0212083425532064</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.394142479661716</v>
+        <v>6.713259423604129e-05</v>
       </c>
       <c r="N35" t="n">
-        <v>-3.98058810590306</v>
+        <v>-0.161323941945042</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,11 +3630,7 @@
           <t>Mana_13a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3644,14 +3640,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3659,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.146194966477192</v>
+        <v>0.139511928802407</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0324675324675325</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H36" t="n">
-        <v>0.285714285714286</v>
+        <v>0.892655367231638</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>0.35</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0015398400713211</v>
+        <v>0.0043749557067647</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0042769320843091</v>
+        <v>-0.0032047925859601</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0005736905228657</v>
+        <v>0.0101176745163455</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.439954306091752</v>
+        <v>0.785449857587927</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3723,7 +3719,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3735,14 +3731,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0.998875258168303</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0198300283286119</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.195467422096317</v>
+        <v>0.7215909090909089</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.025</v>
+        <v>0.912</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0008040414152702</v>
+        <v>-0.0129729689952904</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0009379180537326</v>
+        <v>-0.0225096864984778</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0006776437847866</v>
+        <v>-0.0066447660984346</v>
       </c>
       <c r="N37" t="n">
-        <v>-3.21616566108092</v>
+        <v>-1.42247467053623</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.999891218449472</v>
+        <v>0.99810239833279</v>
       </c>
       <c r="G38" t="n">
-        <v>0.117647058823529</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.755882352941176</v>
+        <v>0.573863636363636</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0325086782484334</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0004636697310162</v>
+        <v>-0.0015692803437164</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0006537894719699</v>
+        <v>-0.0027225918567169</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0002477994363235</v>
+        <v>-0.0005997536945812</v>
       </c>
       <c r="N38" t="n">
-        <v>-1.42629524175924</v>
+        <v>-2.22592956555523</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3905,7 +3901,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3917,14 +3913,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3932,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.977043260072075</v>
+        <v>0.997971689177219</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0089820359281437</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.622754491017964</v>
+        <v>0.9034090909090911</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.53</v>
+        <v>16</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0030776729630367</v>
+        <v>-0.692296792881032</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0053227108616665</v>
+        <v>-1.18315002491796</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.0003922273859535</v>
+        <v>-0.301764131854968</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.58069301189372</v>
+        <v>-4.32685495550645</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3965,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3996,7 +3992,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4008,14 +4004,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4023,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.996882557846513</v>
+        <v>0.752725387602148</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0084985835694051</v>
+        <v>0.05</v>
       </c>
       <c r="H40" t="n">
-        <v>0.781869688385269</v>
+        <v>0.335</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>0.61</v>
+        <v>0.315</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0038883070054945</v>
+        <v>0.0014739827064369</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0061951930144441</v>
+        <v>-0.0024144823242962</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0016177574722872</v>
+        <v>0.0068056213133435</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.637427377949919</v>
+        <v>0.467931017916483</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4056,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4087,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4099,14 +4095,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4114,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.863886889926643</v>
+        <v>0.999999998418111</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.0212765957446809</v>
       </c>
       <c r="H41" t="n">
-        <v>0.734463276836158</v>
+        <v>0.238297872340426</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>17.1</v>
+        <v>0.023</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0869465926142314</v>
+        <v>-0.0007567707562527</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.205838268238725</v>
+        <v>-0.0009792225201072</v>
       </c>
       <c r="M41" t="n">
-        <v>0.043245003500606</v>
+        <v>-0.0005391143911439</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.508459605931178</v>
+        <v>-3.29030763588163</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4147,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4177,6 +4173,1098 @@
         </is>
       </c>
       <c r="W41" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>20</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.987639909356799</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0042372881355932</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.669491525423729</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>210</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-5.01717032967033</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-10.6345117980155</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.760079945121629</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-2.38912872841444</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.814934834899566</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.170403587443946</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.807174887892377</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.0293816104948973</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0001012122015443</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0005266440907835</v>
+      </c>
+      <c r="M43" t="n">
+        <v>7.18691531140056e-05</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.344474655539817</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.801153027965736</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0138248847926267</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.820276497695853</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.0030103021978022</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.0069675868257799</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0023181815291729</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.590255332902392</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.6978079462330919</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0127118644067797</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.843220338983051</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.0013710342620046</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.0054719982563825</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0035010872721938</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.243522959503494</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.999999270118758</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.542986425339366</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0022203647416413</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0030355433531273</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.0014295499021526</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-2.96048632218845</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>20</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.999968379522439</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.885593220338983</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.7483505639097749</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.16010606506556</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.394142479661716</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-3.98058810590306</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.146194966477192</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0324675324675325</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.0015398400713211</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.0042769320843091</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0005736905228657</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.439954306091752</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>30</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0198300283286119</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.195467422096317</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.0008040414152702</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.0009379180537326</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.0006776437847866</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-3.21616566108092</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>30</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.999891218449472</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.117647058823529</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.755882352941176</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0325086782484334</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.0004636697310162</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.0006537894719699</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.0002477994363235</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-1.42629524175924</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>30</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.977043260072075</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0089820359281437</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.622754491017964</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.0030776729630367</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.0053227108616665</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.0003922273859535</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.58069301189372</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>30</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.996882557846513</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0084985835694051</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.781869688385269</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.0038883070054945</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.0061951930144441</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.0016177574722872</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.637427377949919</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>30</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.863886889926643</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.734463276836158</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.0869465926142314</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.205838268238725</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.043245003500606</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.508459605931178</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/ManawatuatWhirokino_a9c872df4b.xlsx
+++ b/trend_results/Rivers/ManawatuatWhirokino_a9c872df4b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.605853538057883</v>
+        <v>0.012963655728517</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0192307692307692</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="H2" t="n">
-        <v>0.634615384615385</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0068971176121176</v>
+        <v>-0.0483606271777004</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0295509619899291</v>
+        <v>-0.092123837864101</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0543830127828668</v>
+        <v>-0.0107427759822389</v>
       </c>
       <c r="N2" t="n">
-        <v>2.15534925378675</v>
+        <v>-15.6002023153872</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.698075876966328</v>
+        <v>0.105056163764983</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.896551724137931</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.119999999999999</v>
+        <v>9.145</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0717103835654793</v>
+        <v>-0.071250129587394</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0610346605069323</v>
+        <v>-0.16757850014971</v>
       </c>
       <c r="M3" t="n">
-        <v>0.150831617133614</v>
+        <v>0.031608168037243</v>
       </c>
       <c r="N3" t="n">
-        <v>0.786298065410958</v>
+        <v>-0.779115687122952</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0307653687243084</v>
+        <v>0.0079692868020571</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.473684210526316</v>
+        <v>0.43859649122807</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0013021431748856</v>
+        <v>0.0014481118191628</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.0004609321452354</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0025119655490736</v>
+        <v>0.0024566616676678</v>
       </c>
       <c r="N4" t="n">
-        <v>6.20068178516959</v>
+        <v>6.29613834418619</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.899977472745335</v>
+        <v>0.182173063316776</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8245614035087721</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K5" t="n">
-        <v>-34.1167582417582</v>
+        <v>16.1559140620145</v>
       </c>
       <c r="L5" t="n">
-        <v>-85.2193768860465</v>
+        <v>-8.599985621814129</v>
       </c>
       <c r="M5" t="n">
-        <v>4.01145392115802</v>
+        <v>81.82885938399509</v>
       </c>
       <c r="N5" t="n">
-        <v>-17.4957734573119</v>
+        <v>8.503112664218181</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.906810370907709</v>
+        <v>0.479141139286993</v>
       </c>
       <c r="G6" t="n">
-        <v>0.153846153846154</v>
+        <v>0.12962962962963</v>
       </c>
       <c r="H6" t="n">
-        <v>0.865384615384615</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0295531666238088</v>
+        <v>0.0275461516961277</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0018402450310657</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0064644378986549</v>
+        <v>-0.0023682744821959</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0001636314852452</v>
+        <v>0.0029258352127007</v>
       </c>
       <c r="N6" t="n">
-        <v>-6.2268962730485</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,35 +1024,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.129511924137742</v>
+        <v>0.904334673084167</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H7" t="n">
         <v>0.368421052631579</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0.014</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0005379805940233</v>
+        <v>-0.0005217857142857</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0013390833381464</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001337912087912</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.84271852873803</v>
+        <v>-3.72704081632653</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0209152972826223</v>
+        <v>0.0760463162407899</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0175438596491228</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0.496</v>
       </c>
       <c r="K8" t="n">
-        <v>0.043648410448118</v>
+        <v>0.0236090996267883</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0048197625430719</v>
+        <v>-0.0070385679017911</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07411301852733961</v>
+        <v>0.0629727060836191</v>
       </c>
       <c r="N8" t="n">
-        <v>8.800082751636699</v>
+        <v>4.7598991183041</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7.8987396709973e-06</v>
+        <v>0.022532088772806</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.842105263157895</v>
+        <v>0.771929824561403</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.41</v>
+        <v>7.3</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.151610347255001</v>
+        <v>-0.0578368246336996</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.200908535411071</v>
+        <v>-0.104357142857143</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.098775857715044</v>
+        <v>-0.0130795974544386</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.04602357968962</v>
+        <v>-0.792285268954789</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0049366660455963</v>
+        <v>0.0449824875182887</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5655</v>
+        <v>0.5685</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0508961487820935</v>
+        <v>0.0376430674541178</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0129837217721255</v>
+        <v>0.0003045098067512</v>
       </c>
       <c r="M10" t="n">
-        <v>0.081076039712005</v>
+        <v>0.0605056871799919</v>
       </c>
       <c r="N10" t="n">
-        <v>9.000203144490451</v>
+        <v>6.62147184769002</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.975316902624034</v>
+        <v>0.0048693434202765</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1400,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>23</v>
+        <v>0.76</v>
       </c>
       <c r="K11" t="n">
-        <v>-2.38648111501587</v>
+        <v>0.0587278668911734</v>
       </c>
       <c r="L11" t="n">
-        <v>-9.010405430119119</v>
+        <v>0.0098973920570987</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.00343406593407</v>
+        <v>0.0867490382976393</v>
       </c>
       <c r="N11" t="n">
-        <v>-10.3760048478951</v>
+        <v>7.72735090673334</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.180794064777091</v>
+        <v>0.190897357608495</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.771929824561403</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.76</v>
+        <v>0.064</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0298190312046443</v>
+        <v>0.0030705082417582</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0120356455975011</v>
+        <v>-0.0017324859644387</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0847792122489167</v>
+        <v>0.008471129867037399</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9235567374532</v>
+        <v>4.79766912774726</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.7651665587254221</v>
+        <v>0.129097523791973</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.807017543859649</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.065</v>
+        <v>13.1</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0017210039869518</v>
+        <v>0.590700808625337</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0094081190321241</v>
+        <v>-1.02428563378531</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0033991653354219</v>
+        <v>3.55345885179557</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.6476984414643</v>
+        <v>4.50916647805601</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,46 +1646,46 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.031618292176762</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0102040816326531</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.6020408163265309</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0.870902476208028</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.9649122807017541</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>14.9</v>
+        <v>0.31</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.43885532522947</v>
+        <v>-0.0179926108374384</v>
       </c>
       <c r="L14" t="n">
-        <v>-3.5609306369929</v>
+        <v>-0.0333054711246201</v>
       </c>
       <c r="M14" t="n">
-        <v>0.221574861637972</v>
+        <v>-0.0017005179414315</v>
       </c>
       <c r="N14" t="n">
-        <v>-9.65674714919105</v>
+        <v>-5.80406801207691</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,46 +1737,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.536795127384942</v>
+        <v>0.6543290942348829</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.55</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.315</v>
+        <v>9.085000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.0063328624939012</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0150842963691495</v>
+        <v>-0.0289177565265719</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0144975426058477</v>
+        <v>0.0394068093581407</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.0697067968508668</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3.01125984288552e-05</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0256410256410256</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.273504273504274</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.436929648337775</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.864406779661017</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>9.17</v>
+        <v>0.021</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.005768331712215</v>
+        <v>0.0009662698412698</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0463626879276648</v>
+        <v>0.0005653695598519</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0301991285142039</v>
+        <v>0.0013646346824636</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0629043807220831</v>
+        <v>4.60128495842782</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0004655753107695</v>
+        <v>0.468047695480366</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0256410256410256</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.264957264957265</v>
+        <v>0.726495726495726</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02</v>
+        <v>170</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0008553864168618</v>
+        <v>0.999589490968801</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004151213971438</v>
+        <v>-6.14034854421235</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0012726480836236</v>
+        <v>13.1125398785427</v>
       </c>
       <c r="N17" t="n">
-        <v>4.27693208430914</v>
+        <v>0.587993818216942</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5636774258209331</v>
+        <v>0.005075612494166</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.225225225225225</v>
       </c>
       <c r="H18" t="n">
-        <v>0.692307692307692</v>
+        <v>0.792792792792793</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>0.0257263986201182</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.748974709501025</v>
+        <v>0.0014215509164652</v>
       </c>
       <c r="L18" t="n">
-        <v>-9.442660206913191</v>
+        <v>0.0003582414194753</v>
       </c>
       <c r="M18" t="n">
-        <v>7.18952443710046</v>
+        <v>0.0023772256742397</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.468109193438141</v>
+        <v>5.52565066512505</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0091627166891347</v>
+        <v>0.741290541679989</v>
       </c>
       <c r="G19" t="n">
-        <v>0.254545454545455</v>
+        <v>0.0598290598290598</v>
       </c>
       <c r="H19" t="n">
-        <v>0.763636363636364</v>
+        <v>0.247863247863248</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0244360215536627</v>
+        <v>0.014</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0012852091052311</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.4114800552385e-05</v>
+        <v>-0.0004446947214942</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0023718274905923</v>
+        <v>0.000133235333201</v>
       </c>
       <c r="N19" t="n">
-        <v>5.25948588811282</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.591531041811718</v>
+        <v>0.33452020953512</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0598290598290598</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H20" t="n">
-        <v>0.264957264957265</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>0.015</v>
+        <v>0.515</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0035007987220447</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0004003470953598</v>
+        <v>-0.0075376768014868</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0002608928571428</v>
+        <v>0.0168179002026666</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>0.679766742144608</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0745531266936829</v>
+        <v>2.63846192805062e-06</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0256410256410256</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.948717948717949</v>
+        <v>0.672413793103448</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.509</v>
+        <v>7.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0106351228389445</v>
+        <v>-0.0494391793073706</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0009290062917479001</v>
+        <v>-0.06569741461612801</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0224213103385071</v>
+        <v>-0.0326444316292082</v>
       </c>
       <c r="N21" t="n">
-        <v>2.08941509605982</v>
+        <v>-0.659189057431608</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_13a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.40425393070099e-05</v>
+        <v>0.0768625599356203</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H22" t="n">
-        <v>0.669565217391304</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.54</v>
+        <v>0.5755</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0435830294995029</v>
+        <v>0.0078097183282258</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0602060439560438</v>
+        <v>-0.0018903102145737</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0269660027425239</v>
+        <v>0.0200993844622289</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.578024263919136</v>
+        <v>1.35703185546931</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_13a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0223396356841</v>
+        <v>0.363724832548252</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.898305084745763</v>
+        <v>0.735042735042735</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5655</v>
+        <v>0.85</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0111680027615101</v>
+        <v>0.0016670470104974</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0027337453778664</v>
+        <v>-0.0099751092955781</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0217417770529249</v>
+        <v>0.0153353004287424</v>
       </c>
       <c r="N23" t="n">
-        <v>1.97488996666846</v>
+        <v>0.196123177705587</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.853939439964588</v>
+        <v>0.149914298720378</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.547008547008547</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>22</v>
+        <v>0.064</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.615676359039191</v>
+        <v>0.0009181059265811</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.85312893640482</v>
+        <v>-0.0004278558306119</v>
       </c>
       <c r="M24" t="n">
-        <v>0.427693208430913</v>
+        <v>0.0025583565973885</v>
       </c>
       <c r="N24" t="n">
-        <v>-2.7985289047236</v>
+        <v>1.43454051028306</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.334036690469746</v>
+        <v>0.384383778702988</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.777777777777778</v>
+        <v>0.9401709401709401</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.84</v>
+        <v>13.4</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002484693877551</v>
+        <v>0.07128220140515221</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0098715837368855</v>
+        <v>-0.584512490171385</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0197252852671778</v>
+        <v>0.725956419976019</v>
       </c>
       <c r="N25" t="n">
-        <v>0.295796890184646</v>
+        <v>0.531956726904121</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.305381885244196</v>
+        <v>7.111880994004061e-05</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0070422535211267</v>
       </c>
       <c r="H26" t="n">
-        <v>0.615384615384615</v>
+        <v>0.457746478873239</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.062</v>
+        <v>0.35</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0004166103188263</v>
+        <v>-0.0225462962962963</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0008845153426473</v>
+        <v>-0.0319894234842809</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0018309078710855</v>
+        <v>-0.0123470706625908</v>
       </c>
       <c r="N26" t="n">
-        <v>0.671952127139233</v>
+        <v>-6.44179894179894</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.863410518836415</v>
+        <v>0.307957536548731</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9145299145299149</v>
+        <v>0.8125</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14.1</v>
+        <v>9.17</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.399180327868853</v>
+        <v>-0.0081856030307877</v>
       </c>
       <c r="L27" t="n">
-        <v>-1.02624443582238</v>
+        <v>-0.0314278669301721</v>
       </c>
       <c r="M27" t="n">
-        <v>0.190378463800898</v>
+        <v>0.0172505613931259</v>
       </c>
       <c r="N27" t="n">
-        <v>-2.83106615509825</v>
+        <v>-0.08926502759855751</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2927,35 +2927,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.06545548587024801</v>
+        <v>0.229449038666845</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0277777777777778</v>
+        <v>0.0284090909090909</v>
       </c>
       <c r="H28" t="n">
-        <v>0.423611111111111</v>
+        <v>0.215909090909091</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>0.35</v>
+        <v>0.021</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0075295164917541</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0178475641451083</v>
+        <v>-0.0001218436727895</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.0003076691893708</v>
       </c>
       <c r="N28" t="n">
-        <v>-2.15129042621546</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.159329215660382</v>
+        <v>0.707361656501499</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.826589595375723</v>
+        <v>0.7215909090909089</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>9.359999999999999</v>
+        <v>192.5</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0149556414922657</v>
+        <v>-1.46918134535166</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0500464662834715</v>
+        <v>-6.8583398027025</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0066681880419899</v>
+        <v>3.66474146582261</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.159782494575488</v>
+        <v>-0.76321108849437</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3109,35 +3109,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.811996389560104</v>
+        <v>0.475978569124506</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0284090909090909</v>
+        <v>0.198795180722892</v>
       </c>
       <c r="H30" t="n">
-        <v>0.221590909090909</v>
+        <v>0.813253012048193</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>0.021</v>
+        <v>0.027658247396113</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0001294785522965</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0003874879846412</v>
+        <v>-0.0004313476305792</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>0.0005117967701436</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.616564534745274</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.925798159582193</v>
+        <v>0.532060344299241</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0598802395209581</v>
       </c>
       <c r="H31" t="n">
-        <v>0.727272727272727</v>
+        <v>0.215568862275449</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>190</v>
+        <v>0.014</v>
       </c>
       <c r="K31" t="n">
-        <v>-3.96085088224274</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-11.4163805909083</v>
+        <v>-0.0001999178981937</v>
       </c>
       <c r="M31" t="n">
-        <v>0.554942581973314</v>
+        <v>0.0001999178981937</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.08465835907513</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.477433172728064</v>
+        <v>0.186387490760863</v>
       </c>
       <c r="G32" t="n">
-        <v>0.212121212121212</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7939393939393939</v>
+        <v>0.916167664670659</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0276009739434872</v>
+        <v>0.488</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.004413030332867</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0004031900757678</v>
+        <v>-0.003352563351756</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0004968439090829</v>
+        <v>0.0108331378691841</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.90430949443997</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3386,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.1237197503767</v>
+        <v>0.0089897350099119</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0645161290322581</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.232258064516129</v>
+        <v>0.590643274853801</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.014</v>
+        <v>7.52</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0001667047010497</v>
+        <v>-0.0163483774710928</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.0277878978671964</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0004268185801928</v>
+        <v>-0.0047408511269601</v>
       </c>
       <c r="N33" t="n">
-        <v>1.19074786464107</v>
+        <v>-0.21739863658368</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Mana_13a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.117021432611563</v>
+        <v>0.418864157976422</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0189873417721519</v>
+        <v>0.0112994350282486</v>
       </c>
       <c r="H34" t="n">
-        <v>0.911392405063291</v>
+        <v>0.8870056497175141</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.497</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0063216346153846</v>
+        <v>0.0011231340710447</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0030103021978022</v>
+        <v>-0.0054523633073105</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0132188556173905</v>
+        <v>0.0071738134999241</v>
       </c>
       <c r="N34" t="n">
-        <v>1.27195867512769</v>
+        <v>0.199137246639131</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.060689962337242</v>
+        <v>0.997480648393267</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.605882352941176</v>
+        <v>0.7215909090909089</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.525</v>
+        <v>0.899</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0121396266313644</v>
+        <v>-0.0105151629473633</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0212083425532064</v>
+        <v>-0.0199408553230209</v>
       </c>
       <c r="M35" t="n">
-        <v>6.713259423604129e-05</v>
+        <v>-0.004416630947027</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.161323941945042</v>
+        <v>-1.16965105087467</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Mana_13a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.139511928802407</v>
+        <v>0.945865978008565</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.892655367231638</v>
+        <v>0.5625</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0043749557067647</v>
+        <v>-0.0007927866514232</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0032047925859601</v>
+        <v>-0.0017279042395462</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0101176745163455</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0.785449857587927</v>
+        <v>-1.15735277580043</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.998875258168303</v>
+        <v>0.974182437139844</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7215909090909089</v>
+        <v>0.914772727272727</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.912</v>
+        <v>15.15</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0129729689952904</v>
+        <v>-0.397123327199732</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0225096864984778</v>
+        <v>-0.78539214238069</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0066447660984346</v>
+        <v>-0.0548221720668255</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.42247467053623</v>
+        <v>-2.62127608712695</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -3837,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.99810239833279</v>
+        <v>0.219168739116373</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="H38" t="n">
-        <v>0.573863636363636</v>
+        <v>0.348484848484849</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0015692803437164</v>
+        <v>-0.0018498354013674</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0027225918567169</v>
+        <v>-0.0071249953244486</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0005997536945812</v>
+        <v>0.002100392545266</v>
       </c>
       <c r="N38" t="n">
-        <v>-2.22592956555523</v>
+        <v>-0.596721097215302</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3913,11 +3913,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.997971689177219</v>
+        <v>0.999992315257154</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.0212765957446809</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9034090909090911</v>
+        <v>0.221276595744681</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>16</v>
+        <v>0.022</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.692296792881032</v>
+        <v>-0.0005331143951833</v>
       </c>
       <c r="L39" t="n">
-        <v>-1.18315002491796</v>
+        <v>-0.0007445995982399</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.301764131854968</v>
+        <v>-0.0003250044346541</v>
       </c>
       <c r="N39" t="n">
-        <v>-4.32685495550645</v>
+        <v>-2.42324725083346</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4004,14 +4004,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.752725387602148</v>
+        <v>0.911995272804903</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.335</v>
+        <v>0.686440677966102</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.315</v>
+        <v>197</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0014739827064369</v>
+        <v>-2.3882786723108</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0024144823242962</v>
+        <v>-6.66390713825449</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0068056213133435</v>
+        <v>0.566514833596107</v>
       </c>
       <c r="N40" t="n">
-        <v>0.467931017916483</v>
+        <v>-1.21232419914254</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -4106,35 +4106,35 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.999999998418111</v>
+        <v>0.692835151125644</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0212765957446809</v>
+        <v>0.170403587443946</v>
       </c>
       <c r="H41" t="n">
-        <v>0.238297872340426</v>
+        <v>0.816143497757848</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>0.023</v>
+        <v>0.0283405261386344</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0007567707562527</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0009792225201072</v>
+        <v>-0.0004059186337866</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.0005391143911439</v>
+        <v>0.0001744100294511</v>
       </c>
       <c r="N41" t="n">
-        <v>-3.29030763588163</v>
+        <v>0</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -4201,31 +4201,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.987639909356799</v>
+        <v>0.724520917421985</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0042372881355932</v>
+        <v>0.0138248847926267</v>
       </c>
       <c r="H42" t="n">
-        <v>0.669491525423729</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>210</v>
+        <v>0.51</v>
       </c>
       <c r="K42" t="n">
-        <v>-5.01717032967033</v>
+        <v>-0.0017983199915736</v>
       </c>
       <c r="L42" t="n">
-        <v>-10.6345117980155</v>
+        <v>-0.0062718958728482</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.760079945121629</v>
+        <v>0.0032086255762659</v>
       </c>
       <c r="N42" t="n">
-        <v>-2.38912872841444</v>
+        <v>-0.352611763053652</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4277,14 +4277,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4292,31 +4292,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.814934834899566</v>
+        <v>0.026755011499571</v>
       </c>
       <c r="G43" t="n">
-        <v>0.170403587443946</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.807174887892377</v>
+        <v>0.5625</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0293816104948973</v>
+        <v>7.5</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0001012122015443</v>
+        <v>-0.0131142505311304</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0005266440907835</v>
+        <v>-0.0201597386262137</v>
       </c>
       <c r="M43" t="n">
-        <v>7.18691531140056e-05</v>
+        <v>-0.0018149068322981</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.344474655539817</v>
+        <v>-0.174856673748405</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4354,11 +4354,7 @@
           <t>Mana_13a</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4368,7 +4364,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -4383,31 +4379,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.801153027965736</v>
+        <v>0.583587710628711</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0138248847926267</v>
+        <v>0.0127118644067797</v>
       </c>
       <c r="H44" t="n">
-        <v>0.820276497695853</v>
+        <v>0.851694915254237</v>
       </c>
       <c r="I44" t="n">
         <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>0.51</v>
+        <v>0.5635</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0030103021978022</v>
+        <v>-0.000698191881177</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.0069675868257799</v>
+        <v>-0.0050599208846591</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0023181815291729</v>
+        <v>0.0041841537695492</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.590255332902392</v>
+        <v>-0.123902729578895</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4416,7 +4412,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4447,7 +4443,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4459,14 +4455,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4474,31 +4470,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.6978079462330919</v>
+        <v>0.999859174958676</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0127118644067797</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.843220338983051</v>
+        <v>0.547511312217195</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0013710342620046</v>
+        <v>-0.0016058457580013</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.0054719982563825</v>
+        <v>-0.0024032418412803</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0035010872721938</v>
+        <v>-0.0008732815301852001</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.243522959503494</v>
+        <v>-2.17006183513689</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4507,7 +4503,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4550,14 +4546,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4565,31 +4561,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.999999270118758</v>
+        <v>0.999146535378246</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.542986425339366</v>
+        <v>0.906779661016949</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.075</v>
+        <v>17.9</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0022203647416413</v>
+        <v>-0.544837846336135</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0030355433531273</v>
+        <v>-0.973243435628053</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0014295499021526</v>
+        <v>-0.243173606135071</v>
       </c>
       <c r="N46" t="n">
-        <v>-2.96048632218845</v>
+        <v>-3.04378685103986</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4629,7 +4625,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4641,14 +4637,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4656,31 +4652,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.999968379522439</v>
+        <v>0.0113457700198</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.0325732899022801</v>
       </c>
       <c r="H47" t="n">
-        <v>0.885593220338983</v>
+        <v>0.280130293159609</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>18.8</v>
+        <v>0.35</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.7483505639097749</v>
+        <v>-0.0035525835866261</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.16010606506556</v>
+        <v>-0.006248328538478</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.394142479661716</v>
+        <v>-0.0007615734393653</v>
       </c>
       <c r="N47" t="n">
-        <v>-3.98058810590306</v>
+        <v>-1.01502388189318</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4689,7 +4685,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4720,7 +4716,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4732,7 +4728,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -4747,31 +4743,31 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.146194966477192</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0324675324675325</v>
+        <v>0.0198300283286119</v>
       </c>
       <c r="H48" t="n">
-        <v>0.285714285714286</v>
+        <v>0.195467422096317</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>0.35</v>
+        <v>0.025</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0015398400713211</v>
+        <v>-0.0007425095291704</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.0042769320843091</v>
+        <v>-0.0008707769449909</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0005736905228657</v>
+        <v>-0.0006202318401478</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.439954306091752</v>
+        <v>-2.97003811668171</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4780,7 +4776,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4811,7 +4807,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4823,14 +4819,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>30</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -4838,31 +4834,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0.999922152366916</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0198300283286119</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="H49" t="n">
-        <v>0.195467422096317</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J49" t="n">
-        <v>0.025</v>
+        <v>0.0324100696797617</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.0008040414152702</v>
+        <v>-0.0004652703492922</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.0009379180537326</v>
+        <v>-0.0006678283843226</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.0006776437847866</v>
+        <v>-0.0002530888755593</v>
       </c>
       <c r="N49" t="n">
-        <v>-3.21616566108092</v>
+        <v>-1.4355734310031</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4914,7 +4910,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -4929,31 +4925,31 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.999891218449472</v>
+        <v>0.994315495646125</v>
       </c>
       <c r="G50" t="n">
-        <v>0.117647058823529</v>
+        <v>0.0089820359281437</v>
       </c>
       <c r="H50" t="n">
-        <v>0.755882352941176</v>
+        <v>0.6497005988023949</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0325086782484334</v>
+        <v>0.53</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0004636697310162</v>
+        <v>-0.003900544364833</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0006537894719699</v>
+        <v>-0.0063220454205996</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.0002477994363235</v>
+        <v>-0.001266546420749</v>
       </c>
       <c r="N50" t="n">
-        <v>-1.42629524175924</v>
+        <v>-0.735951766949637</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5005,7 +5001,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -5020,31 +5016,31 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.977043260072075</v>
+        <v>0.999316733987181</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0089820359281437</v>
+        <v>0.0084985835694051</v>
       </c>
       <c r="H51" t="n">
-        <v>0.622754491017964</v>
+        <v>0.781869688385269</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>0.53</v>
+        <v>0.61</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.0030776729630367</v>
+        <v>-0.004864277320799</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.0053227108616665</v>
+        <v>-0.0073161671502502</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.0003922273859535</v>
+        <v>-0.0024975159413038</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.58069301189372</v>
+        <v>-0.797422511606403</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5053,7 +5049,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q51" t="n">
@@ -5084,7 +5080,7 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -5096,7 +5092,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -5111,31 +5107,31 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.996882557846513</v>
+        <v>0.697522806157116</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0084985835694051</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.781869688385269</v>
+        <v>0.7570621468926551</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.61</v>
+        <v>16.75</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0038883070054945</v>
+        <v>-0.0402910725900672</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.0061951930144441</v>
+        <v>-0.166310608956659</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.0016177574722872</v>
+        <v>0.0999172757397626</v>
       </c>
       <c r="N52" t="n">
-        <v>-0.637427377949919</v>
+        <v>-0.240543716955625</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5144,7 +5140,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q52" t="n">
@@ -5174,97 +5170,6 @@
         </is>
       </c>
       <c r="W52" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Manawatu at Whirokino</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>30</v>
-      </c>
-      <c r="D53" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>0.863886889926643</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.734463276836158</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-0.0869465926142314</v>
-      </c>
-      <c r="L53" t="n">
-        <v>-0.205838268238725</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.043245003500606</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-0.508459605931178</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q53" t="n">
-        <v>1792183</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5512989</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Mana_13a</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/ManawatuatWhirokino_a9c872df4b.xlsx
+++ b/trend_results/Rivers/ManawatuatWhirokino_a9c872df4b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="61">
   <si>
     <t>site name</t>
   </si>
@@ -127,52 +127,49 @@
     <t>ok</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
+    <t>Exceptionally unlikely increasing</t>
   </si>
   <si>
     <t>Very likely improving</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
     <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
   </si>
   <si>
     <t>Horowhenua District</t>
@@ -557,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,38 +648,38 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.012963655728517</v>
+        <v>0.0015900311369559</v>
       </c>
       <c r="G2">
-        <v>0.0196078431372549</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.705882352941177</v>
+        <v>0.73469387755102</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="K2">
-        <v>-0.0483606271777004</v>
+        <v>-0.0579761904761905</v>
       </c>
       <c r="L2">
-        <v>-0.092123837864101</v>
+        <v>-0.100737032035153</v>
       </c>
       <c r="M2">
-        <v>-0.0107427759822389</v>
+        <v>-0.0250570009621911</v>
       </c>
       <c r="N2">
-        <v>-15.6002023153872</v>
+        <v>-21.4726631393298</v>
       </c>
       <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
-        <v>40</v>
-      </c>
       <c r="Q2">
         <v>1792183</v>
       </c>
@@ -690,19 +687,19 @@
         <v>5512989</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" t="s">
         <v>56</v>
-      </c>
-      <c r="W2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -722,13 +719,13 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.105056163764983</v>
+        <v>0.294577232725029</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.931034482758621</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -737,22 +734,22 @@
         <v>9.145</v>
       </c>
       <c r="K3">
-        <v>-0.071250129587394</v>
+        <v>-0.0186994019138757</v>
       </c>
       <c r="L3">
-        <v>-0.16757850014971</v>
+        <v>-0.125367427398555</v>
       </c>
       <c r="M3">
-        <v>0.031608168037243</v>
+        <v>0.0899648641330778</v>
       </c>
       <c r="N3">
-        <v>-0.779115687122952</v>
+        <v>-0.204476784186722</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q3">
         <v>1792183</v>
@@ -761,19 +758,19 @@
         <v>5512989</v>
       </c>
       <c r="S3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -793,37 +790,37 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.0079692868020571</v>
+        <v>0.0576990137233705</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.43859649122807</v>
+        <v>0.403508771929825</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="K4">
-        <v>0.0014481118191628</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="L4">
-        <v>0.0004609321452354</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0024566616676678</v>
+        <v>0.0020987162081493</v>
       </c>
       <c r="N4">
-        <v>6.29613834418619</v>
+        <v>4.56106393606394</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q4">
         <v>1792183</v>
@@ -832,19 +829,19 @@
         <v>5512989</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -864,37 +861,37 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.182173063316776</v>
+        <v>0.729656779857594</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="H5">
-        <v>0.842105263157895</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="K5">
-        <v>16.1559140620145</v>
+        <v>-10.3786885245902</v>
       </c>
       <c r="L5">
-        <v>-8.599985621814129</v>
+        <v>-50.1717032967033</v>
       </c>
       <c r="M5">
-        <v>81.82885938399509</v>
+        <v>5.58741987261793</v>
       </c>
       <c r="N5">
-        <v>8.503112664218181</v>
+        <v>-6.17779078844653</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q5">
         <v>1792183</v>
@@ -903,19 +900,19 @@
         <v>5512989</v>
       </c>
       <c r="S5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -932,16 +929,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>0.479141139286993</v>
+        <v>0.0763926230817977</v>
       </c>
       <c r="G6">
-        <v>0.12962962962963</v>
+        <v>0.125</v>
       </c>
       <c r="H6">
-        <v>0.888888888888889</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -950,22 +947,22 @@
         <v>0.0275461516961277</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.0023827485029375</v>
       </c>
       <c r="L6">
-        <v>-0.0023682744821959</v>
+        <v>-0.0001032204601866</v>
       </c>
       <c r="M6">
-        <v>0.0029258352127007</v>
+        <v>0.0052110492742297</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>8.65002316556801</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q6">
         <v>1792183</v>
@@ -974,19 +971,19 @@
         <v>5512989</v>
       </c>
       <c r="S6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1000,43 +997,43 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>0.904334673084167</v>
+        <v>0.9983617345657591</v>
       </c>
       <c r="G7">
-        <v>0.0175438596491228</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="H7">
-        <v>0.368421052631579</v>
+        <v>0.350877192982456</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="K7">
-        <v>-0.0005217857142857</v>
+        <v>-0.0015826891858141</v>
       </c>
       <c r="L7">
-        <v>-0.0013390833381464</v>
+        <v>-0.0020068681318681</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-0.0006217086305626</v>
       </c>
       <c r="N7">
-        <v>-3.72704081632653</v>
+        <v>-12.1745321985707</v>
       </c>
       <c r="O7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q7">
         <v>1792183</v>
@@ -1045,19 +1042,19 @@
         <v>5512989</v>
       </c>
       <c r="S7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1077,7 +1074,7 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.0760463162407899</v>
+        <v>0.70112707214848</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1089,25 +1086,25 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.496</v>
+        <v>0.488</v>
       </c>
       <c r="K8">
-        <v>0.0236090996267883</v>
+        <v>-0.0119934262166405</v>
       </c>
       <c r="L8">
-        <v>-0.0070385679017911</v>
+        <v>-0.0346542228299083</v>
       </c>
       <c r="M8">
-        <v>0.0629727060836191</v>
+        <v>0.0235605810026357</v>
       </c>
       <c r="N8">
-        <v>4.7598991183041</v>
+        <v>-2.45766930668863</v>
       </c>
       <c r="O8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q8">
         <v>1792183</v>
@@ -1116,19 +1113,19 @@
         <v>5512989</v>
       </c>
       <c r="S8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1148,37 +1145,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.022532088772806</v>
+        <v>0.623791065765551</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.771929824561403</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.3</v>
+        <v>7.295</v>
       </c>
       <c r="K9">
-        <v>-0.0578368246336996</v>
+        <v>0.0062865748709126</v>
       </c>
       <c r="L9">
-        <v>-0.104357142857143</v>
+        <v>-0.0340560880537974</v>
       </c>
       <c r="M9">
-        <v>-0.0130795974544386</v>
+        <v>0.0448051399507998</v>
       </c>
       <c r="N9">
-        <v>-0.792285268954789</v>
+        <v>0.0861764889775551</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q9">
         <v>1792183</v>
@@ -1187,16 +1184,16 @@
         <v>5512989</v>
       </c>
       <c r="S9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1216,13 +1213,13 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.0449824875182887</v>
+        <v>0.356211124939333</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.982758620689655</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1231,22 +1228,22 @@
         <v>0.5685</v>
       </c>
       <c r="K10">
-        <v>0.0376430674541178</v>
+        <v>0.0037413755886969</v>
       </c>
       <c r="L10">
-        <v>0.0003045098067512</v>
+        <v>-0.0396204579777461</v>
       </c>
       <c r="M10">
-        <v>0.0605056871799919</v>
+        <v>0.0394543879023012</v>
       </c>
       <c r="N10">
-        <v>6.62147184769002</v>
+        <v>0.658113560017061</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q10">
         <v>1792183</v>
@@ -1255,19 +1252,19 @@
         <v>5512989</v>
       </c>
       <c r="S10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1287,37 +1284,37 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.0048693434202765</v>
+        <v>0.223541847744933</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.754385964912281</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="K11">
-        <v>0.0587278668911734</v>
+        <v>0.0100830510508909</v>
       </c>
       <c r="L11">
-        <v>0.0098973920570987</v>
+        <v>-0.0102186423698829</v>
       </c>
       <c r="M11">
-        <v>0.0867490382976393</v>
+        <v>0.0605235185154941</v>
       </c>
       <c r="N11">
-        <v>7.72735090673334</v>
+        <v>1.27633557606213</v>
       </c>
       <c r="O11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q11">
         <v>1792183</v>
@@ -1326,19 +1323,19 @@
         <v>5512989</v>
       </c>
       <c r="S11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1358,13 +1355,13 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.190897357608495</v>
+        <v>0.69002290932481</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.736842105263158</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1373,22 +1370,22 @@
         <v>0.064</v>
       </c>
       <c r="K12">
-        <v>0.0030705082417582</v>
+        <v>-0.0010075042868968</v>
       </c>
       <c r="L12">
-        <v>-0.0017324859644387</v>
+        <v>-0.005724504332197</v>
       </c>
       <c r="M12">
-        <v>0.008471129867037399</v>
+        <v>0.0036122063209871</v>
       </c>
       <c r="N12">
-        <v>4.79766912774726</v>
+        <v>-1.57422544827637</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q12">
         <v>1792183</v>
@@ -1397,19 +1394,19 @@
         <v>5512989</v>
       </c>
       <c r="S12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1429,13 +1426,13 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.129097523791973</v>
+        <v>0.29887292785152</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.9649122807017541</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1444,22 +1441,22 @@
         <v>13.1</v>
       </c>
       <c r="K13">
-        <v>0.590700808625337</v>
+        <v>0.754096274237023</v>
       </c>
       <c r="L13">
-        <v>-1.02428563378531</v>
+        <v>-1.55243422468334</v>
       </c>
       <c r="M13">
-        <v>3.55345885179557</v>
+        <v>2.5982479973604</v>
       </c>
       <c r="N13">
-        <v>4.50916647805601</v>
+        <v>5.75646010867956</v>
       </c>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q13">
         <v>1792183</v>
@@ -1468,19 +1465,19 @@
         <v>5512989</v>
       </c>
       <c r="S13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1500,37 +1497,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.031618292176762</v>
+        <v>0.016187585124541</v>
       </c>
       <c r="G14">
-        <v>0.0102040816326531</v>
+        <v>0.009900990099009899</v>
       </c>
       <c r="H14">
-        <v>0.6020408163265309</v>
+        <v>0.5544554455445549</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="K14">
-        <v>-0.0179926108374384</v>
+        <v>-0.016510036367212</v>
       </c>
       <c r="L14">
-        <v>-0.0333054711246201</v>
+        <v>-0.0291586134453782</v>
       </c>
       <c r="M14">
-        <v>-0.0017005179414315</v>
+        <v>-0.0044703294352954</v>
       </c>
       <c r="N14">
-        <v>-5.80406801207691</v>
+        <v>-5.89644155971857</v>
       </c>
       <c r="O14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="Q14">
         <v>1792183</v>
@@ -1539,19 +1536,19 @@
         <v>5512989</v>
       </c>
       <c r="S14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W14" t="s">
         <v>56</v>
-      </c>
-      <c r="W14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1571,37 +1568,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.6543290942348829</v>
+        <v>0.372666533665401</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.847457627118644</v>
+        <v>0.836206896551724</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.085000000000001</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="K15">
-        <v>0.0063328624939012</v>
+        <v>-0.0086673802860494</v>
       </c>
       <c r="L15">
-        <v>-0.0289177565265719</v>
+        <v>-0.036254544691691</v>
       </c>
       <c r="M15">
-        <v>0.0394068093581407</v>
+        <v>0.0290997092107278</v>
       </c>
       <c r="N15">
-        <v>0.0697067968508668</v>
+        <v>-0.0950370645400155</v>
       </c>
       <c r="O15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q15">
         <v>1792183</v>
@@ -1610,19 +1607,19 @@
         <v>5512989</v>
       </c>
       <c r="S15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1642,13 +1639,13 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>3.01125984288552E-05</v>
+        <v>0.0034378999958007</v>
       </c>
       <c r="G16">
         <v>0.0256410256410256</v>
       </c>
       <c r="H16">
-        <v>0.273504273504274</v>
+        <v>0.256410256410256</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1657,23 +1654,23 @@
         <v>0.021</v>
       </c>
       <c r="K16">
-        <v>0.0009662698412698</v>
+        <v>0.0005875965250965</v>
       </c>
       <c r="L16">
-        <v>0.0005653695598519</v>
+        <v>0.0001876927029804</v>
       </c>
       <c r="M16">
-        <v>0.0013646346824636</v>
+        <v>0.0009945886205399001</v>
       </c>
       <c r="N16">
-        <v>4.60128495842782</v>
+        <v>2.79807869093583</v>
       </c>
       <c r="O16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" t="s">
         <v>39</v>
       </c>
-      <c r="P16" t="s">
-        <v>42</v>
-      </c>
       <c r="Q16">
         <v>1792183</v>
       </c>
@@ -1681,19 +1678,19 @@
         <v>5512989</v>
       </c>
       <c r="S16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1713,37 +1710,37 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.468047695480366</v>
+        <v>0.790810305054631</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0086206896551724</v>
       </c>
       <c r="H17">
-        <v>0.726495726495726</v>
+        <v>0.732758620689655</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>170</v>
+        <v>164.8</v>
       </c>
       <c r="K17">
-        <v>0.999589490968801</v>
+        <v>-2.99112829845314</v>
       </c>
       <c r="L17">
-        <v>-6.14034854421235</v>
+        <v>-15.9838042339985</v>
       </c>
       <c r="M17">
-        <v>13.1125398785427</v>
+        <v>4.01345526348241</v>
       </c>
       <c r="N17">
-        <v>0.587993818216942</v>
+        <v>-1.81500503546914</v>
       </c>
       <c r="O17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q17">
         <v>1792183</v>
@@ -1752,19 +1749,19 @@
         <v>5512989</v>
       </c>
       <c r="S17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1781,40 +1778,40 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18">
-        <v>0.005075612494166</v>
+        <v>0.0370293723984352</v>
       </c>
       <c r="G18">
-        <v>0.225225225225225</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="H18">
-        <v>0.792792792792793</v>
+        <v>0.828828828828829</v>
       </c>
       <c r="I18">
         <v>5</v>
       </c>
       <c r="J18">
-        <v>0.0257263986201182</v>
+        <v>0.027364504782584</v>
       </c>
       <c r="K18">
-        <v>0.0014215509164652</v>
+        <v>0.0010586047514626</v>
       </c>
       <c r="L18">
-        <v>0.0003582414194753</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0023772256742397</v>
+        <v>0.0020995147371377</v>
       </c>
       <c r="N18">
-        <v>5.52565066512505</v>
+        <v>3.86853246522614</v>
       </c>
       <c r="O18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P18" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q18">
         <v>1792183</v>
@@ -1823,19 +1820,19 @@
         <v>5512989</v>
       </c>
       <c r="S18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1852,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19">
-        <v>0.741290541679989</v>
+        <v>0.993139685583034</v>
       </c>
       <c r="G19">
-        <v>0.0598290598290598</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H19">
-        <v>0.247863247863248</v>
+        <v>0.239316239316239</v>
       </c>
       <c r="I19">
         <v>3</v>
@@ -1870,22 +1867,22 @@
         <v>0.014</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-0.0005013729197756</v>
       </c>
       <c r="L19">
-        <v>-0.0004446947214942</v>
+        <v>-0.0008261477301425</v>
       </c>
       <c r="M19">
-        <v>0.000133235333201</v>
+        <v>-0.0001774277180452</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-3.58123514125498</v>
       </c>
       <c r="O19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q19">
         <v>1792183</v>
@@ -1894,19 +1891,19 @@
         <v>5512989</v>
       </c>
       <c r="S19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1926,7 +1923,7 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.33452020953512</v>
+        <v>0.803705242101166</v>
       </c>
       <c r="G20">
         <v>0.0256410256410256</v>
@@ -1938,25 +1935,25 @@
         <v>2</v>
       </c>
       <c r="J20">
-        <v>0.515</v>
+        <v>0.509</v>
       </c>
       <c r="K20">
-        <v>0.0035007987220447</v>
+        <v>-0.0064911141490088</v>
       </c>
       <c r="L20">
-        <v>-0.0075376768014868</v>
+        <v>-0.0149571510992512</v>
       </c>
       <c r="M20">
-        <v>0.0168179002026666</v>
+        <v>0.0066002194314989</v>
       </c>
       <c r="N20">
-        <v>0.679766742144608</v>
+        <v>-1.27526800569919</v>
       </c>
       <c r="O20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q20">
         <v>1792183</v>
@@ -1965,19 +1962,19 @@
         <v>5512989</v>
       </c>
       <c r="S20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1997,37 +1994,37 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>2.63846192805062E-06</v>
+        <v>8.74408350171052E-08</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.672413793103448</v>
+        <v>0.637931034482759</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.5</v>
+        <v>7.46</v>
       </c>
       <c r="K21">
-        <v>-0.0494391793073706</v>
+        <v>-0.0613244224815431</v>
       </c>
       <c r="L21">
-        <v>-0.06569741461612801</v>
+        <v>-0.07801145162769139</v>
       </c>
       <c r="M21">
-        <v>-0.0326444316292082</v>
+        <v>-0.044229554026729</v>
       </c>
       <c r="N21">
-        <v>-0.659189057431608</v>
+        <v>-0.822043196803527</v>
       </c>
       <c r="O21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q21">
         <v>1792183</v>
@@ -2036,16 +2033,16 @@
         <v>5512989</v>
       </c>
       <c r="S21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2065,7 +2062,7 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.0768625599356203</v>
+        <v>0.355753691105555</v>
       </c>
       <c r="G22">
         <v>0.0169491525423729</v>
@@ -2080,22 +2077,22 @@
         <v>0.5755</v>
       </c>
       <c r="K22">
-        <v>0.0078097183282258</v>
+        <v>0.0019914390024445</v>
       </c>
       <c r="L22">
-        <v>-0.0018903102145737</v>
+        <v>-0.0130423835943703</v>
       </c>
       <c r="M22">
-        <v>0.0200993844622289</v>
+        <v>0.0113679761229693</v>
       </c>
       <c r="N22">
-        <v>1.35703185546931</v>
+        <v>0.346036316671507</v>
       </c>
       <c r="O22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q22">
         <v>1792183</v>
@@ -2104,19 +2101,19 @@
         <v>5512989</v>
       </c>
       <c r="S22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2136,37 +2133,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.363724832548252</v>
+        <v>0.765740879373528</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.735042735042735</v>
+        <v>0.675213675213675</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="K23">
-        <v>0.0016670470104974</v>
+        <v>-0.0055509118541033</v>
       </c>
       <c r="L23">
-        <v>-0.0099751092955781</v>
+        <v>-0.0138054372515532</v>
       </c>
       <c r="M23">
-        <v>0.0153353004287424</v>
+        <v>0.0037785537332178</v>
       </c>
       <c r="N23">
-        <v>0.196123177705587</v>
+        <v>-0.660822839774207</v>
       </c>
       <c r="O23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q23">
         <v>1792183</v>
@@ -2175,19 +2172,19 @@
         <v>5512989</v>
       </c>
       <c r="S23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2207,7 +2204,7 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.149914298720378</v>
+        <v>0.235439995695365</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2219,25 +2216,25 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.064</v>
+        <v>0.062</v>
       </c>
       <c r="K24">
-        <v>0.0009181059265811</v>
+        <v>0.0005913390590938</v>
       </c>
       <c r="L24">
-        <v>-0.0004278558306119</v>
+        <v>-0.0006242510774105</v>
       </c>
       <c r="M24">
-        <v>0.0025583565973885</v>
+        <v>0.0021688045307341</v>
       </c>
       <c r="N24">
-        <v>1.43454051028306</v>
+        <v>0.95377267595785</v>
       </c>
       <c r="O24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q24">
         <v>1792183</v>
@@ -2246,19 +2243,19 @@
         <v>5512989</v>
       </c>
       <c r="S24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2278,7 +2275,7 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.384383778702988</v>
+        <v>0.354190187531768</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2290,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="K25">
-        <v>0.07128220140515221</v>
+        <v>0.1665273556231</v>
       </c>
       <c r="L25">
-        <v>-0.584512490171385</v>
+        <v>-0.464355228923222</v>
       </c>
       <c r="M25">
-        <v>0.725956419976019</v>
+        <v>0.735480724169712</v>
       </c>
       <c r="N25">
-        <v>0.531956726904121</v>
+        <v>1.2712011879626</v>
       </c>
       <c r="O25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q25">
         <v>1792183</v>
@@ -2317,19 +2314,19 @@
         <v>5512989</v>
       </c>
       <c r="S25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2349,38 +2346,38 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>7.111880994004061E-05</v>
+        <v>0.0001861032719829</v>
       </c>
       <c r="G26">
-        <v>0.0070422535211267</v>
+        <v>0.0070921985815602</v>
       </c>
       <c r="H26">
-        <v>0.457746478873239</v>
+        <v>0.453900709219858</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="K26">
-        <v>-0.0225462962962963</v>
+        <v>-0.0198072758573366</v>
       </c>
       <c r="L26">
-        <v>-0.0319894234842809</v>
+        <v>-0.0291920896667164</v>
       </c>
       <c r="M26">
-        <v>-0.0123470706625908</v>
+        <v>-0.0104154561406112</v>
       </c>
       <c r="N26">
-        <v>-6.44179894179894</v>
+        <v>-6.38944382494729</v>
       </c>
       <c r="O26" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26" t="s">
         <v>39</v>
       </c>
-      <c r="P26" t="s">
-        <v>42</v>
-      </c>
       <c r="Q26">
         <v>1792183</v>
       </c>
@@ -2388,19 +2385,19 @@
         <v>5512989</v>
       </c>
       <c r="S26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V26" t="s">
+        <v>55</v>
+      </c>
+      <c r="W26" t="s">
         <v>56</v>
-      </c>
-      <c r="W26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2420,37 +2417,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.307957536548731</v>
+        <v>0.582989509288513</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.8125</v>
+        <v>0.798850574712644</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>9.17</v>
+        <v>9.145</v>
       </c>
       <c r="K27">
-        <v>-0.0081856030307877</v>
+        <v>0.0024897935618355</v>
       </c>
       <c r="L27">
-        <v>-0.0314278669301721</v>
+        <v>-0.0165842433521277</v>
       </c>
       <c r="M27">
-        <v>0.0172505613931259</v>
+        <v>0.0241257650211718</v>
       </c>
       <c r="N27">
-        <v>-0.08926502759855751</v>
+        <v>0.0272257360506895</v>
       </c>
       <c r="O27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q27">
         <v>1792183</v>
@@ -2459,19 +2456,19 @@
         <v>5512989</v>
       </c>
       <c r="S27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2488,40 +2485,40 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F28">
-        <v>0.229449038666845</v>
+        <v>0.0396843463966722</v>
       </c>
       <c r="G28">
-        <v>0.0284090909090909</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="H28">
-        <v>0.215909090909091</v>
+        <v>0.198863636363636</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0.021</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.0002102562590851</v>
       </c>
       <c r="L28">
-        <v>-0.0001218436727895</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0.0003076691893708</v>
+        <v>0.0004330171902786</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1.00122028135783</v>
       </c>
       <c r="O28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P28" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q28">
         <v>1792183</v>
@@ -2530,19 +2527,19 @@
         <v>5512989</v>
       </c>
       <c r="S28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2562,34 +2559,34 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.707361656501499</v>
+        <v>0.940518197352527</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.0057142857142857</v>
       </c>
       <c r="H29">
-        <v>0.7215909090909089</v>
+        <v>0.72</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>192.5</v>
+        <v>190</v>
       </c>
       <c r="K29">
-        <v>-1.46918134535166</v>
+        <v>-3.53645990922844</v>
       </c>
       <c r="L29">
-        <v>-6.8583398027025</v>
+        <v>-13.3718359467007</v>
       </c>
       <c r="M29">
-        <v>3.66474146582261</v>
+        <v>0.0477533507696925</v>
       </c>
       <c r="N29">
-        <v>-0.76321108849437</v>
+        <v>-1.8612946890676</v>
       </c>
       <c r="O29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P29" t="s">
         <v>49</v>
@@ -2601,19 +2598,19 @@
         <v>5512989</v>
       </c>
       <c r="S29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2630,40 +2627,40 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30">
-        <v>0.475978569124506</v>
+        <v>0.588397319065438</v>
       </c>
       <c r="G30">
-        <v>0.198795180722892</v>
+        <v>0.18562874251497</v>
       </c>
       <c r="H30">
-        <v>0.813253012048193</v>
+        <v>0.826347305389222</v>
       </c>
       <c r="I30">
         <v>5</v>
       </c>
       <c r="J30">
-        <v>0.027658247396113</v>
+        <v>0.0283405261386344</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>-0.0004313476305792</v>
+        <v>-0.0006233395829229</v>
       </c>
       <c r="M30">
-        <v>0.0005117967701436</v>
+        <v>0.0004670631479275</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q30">
         <v>1792183</v>
@@ -2672,19 +2669,19 @@
         <v>5512989</v>
       </c>
       <c r="S30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2701,16 +2698,16 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31">
-        <v>0.532060344299241</v>
+        <v>0.704295560443335</v>
       </c>
       <c r="G31">
-        <v>0.0598802395209581</v>
+        <v>0.0681818181818182</v>
       </c>
       <c r="H31">
-        <v>0.215568862275449</v>
+        <v>0.198863636363636</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -2722,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>-0.0001999178981937</v>
+        <v>-0.0002489404761333</v>
       </c>
       <c r="M31">
-        <v>0.0001999178981937</v>
+        <v>0.000111018237082</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q31">
         <v>1792183</v>
@@ -2743,19 +2740,19 @@
         <v>5512989</v>
       </c>
       <c r="S31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2775,37 +2772,37 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.186387490760863</v>
+        <v>0.5117620352843451</v>
       </c>
       <c r="G32">
-        <v>0.0179640718562874</v>
+        <v>0.0170454545454545</v>
       </c>
       <c r="H32">
-        <v>0.916167664670659</v>
+        <v>0.914772727272727</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32">
-        <v>0.488</v>
+        <v>0.479</v>
       </c>
       <c r="K32">
-        <v>0.004413030332867</v>
+        <v>-1.16733918677414E-05</v>
       </c>
       <c r="L32">
-        <v>-0.003352563351756</v>
+        <v>-0.0062714341235295</v>
       </c>
       <c r="M32">
-        <v>0.0108331378691841</v>
+        <v>0.0069461869617831</v>
       </c>
       <c r="N32">
-        <v>0.90430949443997</v>
+        <v>-0.0024370337928478</v>
       </c>
       <c r="O32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q32">
         <v>1792183</v>
@@ -2814,19 +2811,19 @@
         <v>5512989</v>
       </c>
       <c r="S32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2846,37 +2843,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.0089897350099119</v>
+        <v>2.20815305720379E-05</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.590643274853801</v>
+        <v>0.558139534883721</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.52</v>
+        <v>7.5</v>
       </c>
       <c r="K33">
-        <v>-0.0163483774710928</v>
+        <v>-0.0254799818016379</v>
       </c>
       <c r="L33">
-        <v>-0.0277878978671964</v>
+        <v>-0.0352557915057914</v>
       </c>
       <c r="M33">
-        <v>-0.0047408511269601</v>
+        <v>-0.0152505219206681</v>
       </c>
       <c r="N33">
-        <v>-0.21739863658368</v>
+        <v>-0.339733090688505</v>
       </c>
       <c r="O33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q33">
         <v>1792183</v>
@@ -2885,16 +2882,16 @@
         <v>5512989</v>
       </c>
       <c r="S33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2914,37 +2911,37 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.418864157976422</v>
+        <v>0.341049631737445</v>
       </c>
       <c r="G34">
         <v>0.0112994350282486</v>
       </c>
       <c r="H34">
-        <v>0.8870056497175141</v>
+        <v>0.875706214689266</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.5639999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="K34">
-        <v>0.0011231340710447</v>
+        <v>0.0018784958027358</v>
       </c>
       <c r="L34">
-        <v>-0.0054523633073105</v>
+        <v>-0.0050088321775449</v>
       </c>
       <c r="M34">
-        <v>0.0071738134999241</v>
+        <v>0.0070583453767079</v>
       </c>
       <c r="N34">
-        <v>0.199137246639131</v>
+        <v>0.333658224287005</v>
       </c>
       <c r="O34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q34">
         <v>1792183</v>
@@ -2953,19 +2950,19 @@
         <v>5512989</v>
       </c>
       <c r="S34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2985,37 +2982,37 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.997480648393267</v>
+        <v>0.993447315381272</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.7215909090909089</v>
+        <v>0.698863636363636</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.899</v>
+        <v>0.894</v>
       </c>
       <c r="K35">
-        <v>-0.0105151629473633</v>
+        <v>-0.0099908238245945</v>
       </c>
       <c r="L35">
-        <v>-0.0199408553230209</v>
+        <v>-0.0179239367502726</v>
       </c>
       <c r="M35">
-        <v>-0.004416630947027</v>
+        <v>-0.0024416044504041</v>
       </c>
       <c r="N35">
-        <v>-1.16965105087467</v>
+        <v>-1.1175418148316</v>
       </c>
       <c r="O35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P35" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="Q35">
         <v>1792183</v>
@@ -3024,19 +3021,19 @@
         <v>5512989</v>
       </c>
       <c r="S35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3056,37 +3053,37 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.945865978008565</v>
+        <v>0.937217272815128</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.5625</v>
+        <v>0.556818181818182</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.06850000000000001</v>
+        <v>0.0655</v>
       </c>
       <c r="K36">
-        <v>-0.0007927866514232</v>
+        <v>-0.0007205335860706</v>
       </c>
       <c r="L36">
-        <v>-0.0017279042395462</v>
+        <v>-0.001625886841317</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>-1.15735277580043</v>
+        <v>-1.1000512764438</v>
       </c>
       <c r="O36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P36" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q36">
         <v>1792183</v>
@@ -3095,19 +3092,19 @@
         <v>5512989</v>
       </c>
       <c r="S36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3127,7 +3124,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.974182437139844</v>
+        <v>0.970432522738193</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3139,25 +3136,25 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>15.15</v>
+        <v>14.75</v>
       </c>
       <c r="K37">
-        <v>-0.397123327199732</v>
+        <v>-0.31543462027815</v>
       </c>
       <c r="L37">
-        <v>-0.78539214238069</v>
+        <v>-0.731488456492413</v>
       </c>
       <c r="M37">
-        <v>-0.0548221720668255</v>
+        <v>-0.0290653220021259</v>
       </c>
       <c r="N37">
-        <v>-2.62127608712695</v>
+        <v>-2.13853979849593</v>
       </c>
       <c r="O37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q37">
         <v>1792183</v>
@@ -3166,19 +3163,19 @@
         <v>5512989</v>
       </c>
       <c r="S37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3198,37 +3195,37 @@
         <v>36</v>
       </c>
       <c r="F38">
-        <v>0.219168739116373</v>
+        <v>0.06622914187623601</v>
       </c>
       <c r="G38">
-        <v>0.0505050505050505</v>
+        <v>0.050761421319797</v>
       </c>
       <c r="H38">
-        <v>0.348484848484849</v>
+        <v>0.350253807106599</v>
       </c>
       <c r="I38">
         <v>4</v>
       </c>
       <c r="J38">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="K38">
-        <v>-0.0018498354013674</v>
+        <v>-0.0040707730668554</v>
       </c>
       <c r="L38">
-        <v>-0.0071249953244486</v>
+        <v>-0.0093623801343757</v>
       </c>
       <c r="M38">
-        <v>0.002100392545266</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>-0.596721097215302</v>
+        <v>-1.35692435561847</v>
       </c>
       <c r="O38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q38">
         <v>1792183</v>
@@ -3237,19 +3234,19 @@
         <v>5512989</v>
       </c>
       <c r="S38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V38" t="s">
+        <v>55</v>
+      </c>
+      <c r="W38" t="s">
         <v>56</v>
-      </c>
-      <c r="W38" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3257,46 +3254,46 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>20</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
       </c>
       <c r="F39">
-        <v>0.999992315257154</v>
+        <v>0.052419293949643</v>
       </c>
       <c r="G39">
-        <v>0.0212765957446809</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0.221276595744681</v>
+        <v>0.802030456852792</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0.022</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="K39">
-        <v>-0.0005331143951833</v>
+        <v>-0.0198775510204077</v>
       </c>
       <c r="L39">
-        <v>-0.0007445995982399</v>
+        <v>-0.046654684711931</v>
       </c>
       <c r="M39">
-        <v>-0.0003250044346541</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>-2.42324725083346</v>
+        <v>-0.212366998081279</v>
       </c>
       <c r="O39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P39" t="s">
         <v>51</v>
@@ -3308,19 +3305,19 @@
         <v>5512989</v>
       </c>
       <c r="S39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3328,49 +3325,49 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
         <v>36</v>
       </c>
       <c r="F40">
-        <v>0.911995272804903</v>
+        <v>0.9997761997328251</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="H40">
-        <v>0.686440677966102</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40">
-        <v>197</v>
+        <v>0.022</v>
       </c>
       <c r="K40">
-        <v>-2.3882786723108</v>
+        <v>-0.0003807662494749</v>
       </c>
       <c r="L40">
-        <v>-6.66390713825449</v>
+        <v>-0.0005797619047619</v>
       </c>
       <c r="M40">
-        <v>0.566514833596107</v>
+        <v>-0.0001999178981937</v>
       </c>
       <c r="N40">
-        <v>-1.21232419914254</v>
+        <v>-1.73075567943162</v>
       </c>
       <c r="O40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q40">
         <v>1792183</v>
@@ -3379,19 +3376,19 @@
         <v>5512989</v>
       </c>
       <c r="S40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3399,49 +3396,49 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41">
         <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41">
-        <v>0.692835151125644</v>
+        <v>0.974932897670734</v>
       </c>
       <c r="G41">
-        <v>0.170403587443946</v>
+        <v>0.0042553191489361</v>
       </c>
       <c r="H41">
-        <v>0.816143497757848</v>
+        <v>0.693617021276596</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>0.0283405261386344</v>
+        <v>190</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>-3.07858905900424</v>
       </c>
       <c r="L41">
-        <v>-0.0004059186337866</v>
+        <v>-7.01372764931351</v>
       </c>
       <c r="M41">
-        <v>0.0001744100294511</v>
+        <v>-0.417985942660531</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>-1.62031003105486</v>
       </c>
       <c r="O41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q41">
         <v>1792183</v>
@@ -3450,16 +3447,16 @@
         <v>5512989</v>
       </c>
       <c r="S41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W41" t="s">
         <v>59</v>
@@ -3470,49 +3467,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F42">
-        <v>0.724520917421985</v>
+        <v>0.361332317354929</v>
       </c>
       <c r="G42">
-        <v>0.0138248847926267</v>
+        <v>0.174107142857143</v>
       </c>
       <c r="H42">
-        <v>0.857142857142857</v>
+        <v>0.816964285714286</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J42">
-        <v>0.51</v>
+        <v>0.027658247396113</v>
       </c>
       <c r="K42">
-        <v>-0.0017983199915736</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>-0.0062718958728482</v>
+        <v>-0.0001907572004113</v>
       </c>
       <c r="M42">
-        <v>0.0032086255762659</v>
+        <v>0.00037002478336</v>
       </c>
       <c r="N42">
-        <v>-0.352611763053652</v>
+        <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P42" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q42">
         <v>1792183</v>
@@ -3521,19 +3518,19 @@
         <v>5512989</v>
       </c>
       <c r="S42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3541,7 +3538,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -3553,37 +3550,37 @@
         <v>36</v>
       </c>
       <c r="F43">
-        <v>0.026755011499571</v>
+        <v>0.457099769672408</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.0137614678899083</v>
       </c>
       <c r="H43">
-        <v>0.5625</v>
+        <v>0.880733944954128</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>7.5</v>
+        <v>0.4795</v>
       </c>
       <c r="K43">
-        <v>-0.0131142505311304</v>
+        <v>0.0003329535095715</v>
       </c>
       <c r="L43">
-        <v>-0.0201597386262137</v>
+        <v>-0.0039426048394372</v>
       </c>
       <c r="M43">
-        <v>-0.0018149068322981</v>
+        <v>0.0049406231453813</v>
       </c>
       <c r="N43">
-        <v>-0.174856673748405</v>
+        <v>0.06943764537467211</v>
       </c>
       <c r="O43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q43">
         <v>1792183</v>
@@ -3592,16 +3589,19 @@
         <v>5512989</v>
       </c>
       <c r="S43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V43" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="W43" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3609,7 +3609,7 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -3621,37 +3621,37 @@
         <v>36</v>
       </c>
       <c r="F44">
-        <v>0.583587710628711</v>
+        <v>0.0059560475696459</v>
       </c>
       <c r="G44">
-        <v>0.0127118644067797</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0.851694915254237</v>
+        <v>0.534313725490196</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0.5635</v>
+        <v>7.49</v>
       </c>
       <c r="K44">
-        <v>-0.000698191881177</v>
+        <v>-0.0150046293014849</v>
       </c>
       <c r="L44">
-        <v>-0.0050599208846591</v>
+        <v>-0.0211795231945052</v>
       </c>
       <c r="M44">
-        <v>0.0041841537695492</v>
+        <v>-0.004557290015549</v>
       </c>
       <c r="N44">
-        <v>-0.123902729578895</v>
+        <v>-0.200328829125299</v>
       </c>
       <c r="O44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P44" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q44">
         <v>1792183</v>
@@ -3660,19 +3660,16 @@
         <v>5512989</v>
       </c>
       <c r="S44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V44" t="s">
-        <v>56</v>
-      </c>
-      <c r="W44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3680,49 +3677,49 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
       </c>
       <c r="F45">
-        <v>0.999859174958676</v>
+        <v>0.255266226877638</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.0126582278481013</v>
       </c>
       <c r="H45">
-        <v>0.547511312217195</v>
+        <v>0.848101265822785</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>0.074</v>
+        <v>0.55</v>
       </c>
       <c r="K45">
-        <v>-0.0016058457580013</v>
+        <v>0.0019028653687962</v>
       </c>
       <c r="L45">
-        <v>-0.0024032418412803</v>
+        <v>-0.002761569012919</v>
       </c>
       <c r="M45">
-        <v>-0.0008732815301852001</v>
+        <v>0.0057308011570775</v>
       </c>
       <c r="N45">
-        <v>-2.17006183513689</v>
+        <v>0.345975521599322</v>
       </c>
       <c r="O45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P45" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q45">
         <v>1792183</v>
@@ -3731,19 +3728,19 @@
         <v>5512989</v>
       </c>
       <c r="S45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3751,7 +3748,7 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -3763,37 +3760,37 @@
         <v>36</v>
       </c>
       <c r="F46">
-        <v>0.999146535378246</v>
+        <v>0.997923593807884</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0.906779661016949</v>
+        <v>0.655660377358491</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>17.9</v>
+        <v>0.894</v>
       </c>
       <c r="K46">
-        <v>-0.544837846336135</v>
+        <v>-0.009986329460013601</v>
       </c>
       <c r="L46">
-        <v>-0.973243435628053</v>
+        <v>-0.0142759465263795</v>
       </c>
       <c r="M46">
-        <v>-0.243173606135071</v>
+        <v>-0.0039722072067357</v>
       </c>
       <c r="N46">
-        <v>-3.04378685103986</v>
+        <v>-1.11703908948699</v>
       </c>
       <c r="O46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P46" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="Q46">
         <v>1792183</v>
@@ -3802,19 +3799,19 @@
         <v>5512989</v>
       </c>
       <c r="S46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3822,10 +3819,10 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C47">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -3834,37 +3831,37 @@
         <v>36</v>
       </c>
       <c r="F47">
-        <v>0.0113457700198</v>
+        <v>0.9999122173902319</v>
       </c>
       <c r="G47">
-        <v>0.0325732899022801</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0.280130293159609</v>
+        <v>0.535714285714286</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0.35</v>
+        <v>0.0725</v>
       </c>
       <c r="K47">
-        <v>-0.0035525835866261</v>
+        <v>-0.0015811688311688</v>
       </c>
       <c r="L47">
-        <v>-0.006248328538478</v>
+        <v>-0.0023921344912359</v>
       </c>
       <c r="M47">
-        <v>-0.0007615734393653</v>
+        <v>-0.0008745073962507</v>
       </c>
       <c r="N47">
-        <v>-1.01502388189318</v>
+        <v>-2.18092252575011</v>
       </c>
       <c r="O47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q47">
         <v>1792183</v>
@@ -3873,16 +3870,16 @@
         <v>5512989</v>
       </c>
       <c r="S47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W47" t="s">
         <v>57</v>
@@ -3893,49 +3890,49 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.999645935692333</v>
       </c>
       <c r="G48">
-        <v>0.0198300283286119</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0.195467422096317</v>
+        <v>0.902542372881356</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0.025</v>
+        <v>17.1</v>
       </c>
       <c r="K48">
-        <v>-0.0007425095291704</v>
+        <v>-0.552418675650069</v>
       </c>
       <c r="L48">
-        <v>-0.0008707769449909</v>
+        <v>-0.965441072914288</v>
       </c>
       <c r="M48">
-        <v>-0.0006202318401478</v>
+        <v>-0.240165589076325</v>
       </c>
       <c r="N48">
-        <v>-2.97003811668171</v>
+        <v>-3.23051857105303</v>
       </c>
       <c r="O48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P48" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="Q48">
         <v>1792183</v>
@@ -3944,19 +3941,19 @@
         <v>5512989</v>
       </c>
       <c r="S48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3964,50 +3961,50 @@
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>30</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="s">
         <v>36</v>
       </c>
       <c r="F49">
-        <v>0.999922152366916</v>
+        <v>0.0070051155598449</v>
       </c>
       <c r="G49">
-        <v>0.117647058823529</v>
+        <v>0.0326797385620915</v>
       </c>
       <c r="H49">
-        <v>0.764705882352941</v>
+        <v>0.281045751633987</v>
       </c>
       <c r="I49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J49">
-        <v>0.0324100696797617</v>
+        <v>0.32</v>
       </c>
       <c r="K49">
-        <v>-0.0004652703492922</v>
+        <v>-0.003750427837992</v>
       </c>
       <c r="L49">
-        <v>-0.0006678283843226</v>
+        <v>-0.0063577502703552</v>
       </c>
       <c r="M49">
-        <v>-0.0002530888755593</v>
+        <v>-0.0010979649987807</v>
       </c>
       <c r="N49">
-        <v>-1.4355734310031</v>
+        <v>-1.1720086993725</v>
       </c>
       <c r="O49" t="s">
+        <v>38</v>
+      </c>
+      <c r="P49" t="s">
         <v>39</v>
       </c>
-      <c r="P49" t="s">
-        <v>51</v>
-      </c>
       <c r="Q49">
         <v>1792183</v>
       </c>
@@ -4015,19 +4012,19 @@
         <v>5512989</v>
       </c>
       <c r="S49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V49" t="s">
+        <v>55</v>
+      </c>
+      <c r="W49" t="s">
         <v>56</v>
-      </c>
-      <c r="W49" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4035,49 +4032,49 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C50">
         <v>30</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
       </c>
       <c r="F50">
-        <v>0.994315495646125</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>0.0089820359281437</v>
+        <v>0.0198300283286119</v>
       </c>
       <c r="H50">
-        <v>0.6497005988023949</v>
+        <v>0.192634560906516</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50">
-        <v>0.53</v>
+        <v>0.024</v>
       </c>
       <c r="K50">
-        <v>-0.003900544364833</v>
+        <v>-0.0006583932751782</v>
       </c>
       <c r="L50">
-        <v>-0.0063220454205996</v>
+        <v>-0.0007786887418934</v>
       </c>
       <c r="M50">
-        <v>-0.001266546420749</v>
+        <v>-0.0005431212220754</v>
       </c>
       <c r="N50">
-        <v>-0.735951766949637</v>
+        <v>-2.74330531324289</v>
       </c>
       <c r="O50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P50" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="Q50">
         <v>1792183</v>
@@ -4086,19 +4083,19 @@
         <v>5512989</v>
       </c>
       <c r="S50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4106,7 +4103,7 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>30</v>
@@ -4118,37 +4115,37 @@
         <v>36</v>
       </c>
       <c r="F51">
-        <v>0.999316733987181</v>
+        <v>0.9998054115969</v>
       </c>
       <c r="G51">
-        <v>0.0084985835694051</v>
+        <v>0.120588235294118</v>
       </c>
       <c r="H51">
-        <v>0.781869688385269</v>
+        <v>0.767647058823529</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J51">
-        <v>0.61</v>
+        <v>0.0321671171775797</v>
       </c>
       <c r="K51">
-        <v>-0.004864277320799</v>
+        <v>-0.0004058816350408</v>
       </c>
       <c r="L51">
-        <v>-0.0073161671502502</v>
+        <v>-0.0006174920529714</v>
       </c>
       <c r="M51">
-        <v>-0.0024975159413038</v>
+        <v>-0.0002137291724434</v>
       </c>
       <c r="N51">
-        <v>-0.797422511606403</v>
+        <v>-1.26179051980366</v>
       </c>
       <c r="O51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P51" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="Q51">
         <v>1792183</v>
@@ -4157,16 +4154,16 @@
         <v>5512989</v>
       </c>
       <c r="S51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W51" t="s">
         <v>58</v>
@@ -4177,7 +4174,7 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C52">
         <v>30</v>
@@ -4189,58 +4186,200 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>0.697522806157116</v>
+        <v>0.999994305647141</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.0089820359281437</v>
       </c>
       <c r="H52">
-        <v>0.7570621468926551</v>
+        <v>0.676646706586826</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52">
+        <v>0.5395</v>
+      </c>
+      <c r="K52">
+        <v>-0.006389665190792</v>
+      </c>
+      <c r="L52">
+        <v>-0.008247258496070499</v>
+      </c>
+      <c r="M52">
+        <v>-0.004166009801293</v>
+      </c>
+      <c r="N52">
+        <v>-1.18436796863615</v>
+      </c>
+      <c r="O52" t="s">
+        <v>38</v>
+      </c>
+      <c r="P52" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q52">
+        <v>1792183</v>
+      </c>
+      <c r="R52">
+        <v>5512989</v>
+      </c>
+      <c r="S52" t="s">
+        <v>52</v>
+      </c>
+      <c r="T52" t="s">
+        <v>53</v>
+      </c>
+      <c r="U52" t="s">
+        <v>54</v>
+      </c>
+      <c r="V52" t="s">
+        <v>55</v>
+      </c>
+      <c r="W52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53">
+        <v>0.999998980073118</v>
+      </c>
+      <c r="G53">
+        <v>0.0084985835694051</v>
+      </c>
+      <c r="H53">
+        <v>0.781869688385269</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>0.62</v>
+      </c>
+      <c r="K53">
+        <v>-0.0068518759413939</v>
+      </c>
+      <c r="L53">
+        <v>-0.009002323516171</v>
+      </c>
+      <c r="M53">
+        <v>-0.0046742378680319</v>
+      </c>
+      <c r="N53">
+        <v>-1.10514128086999</v>
+      </c>
+      <c r="O53" t="s">
+        <v>38</v>
+      </c>
+      <c r="P53" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q53">
+        <v>1792183</v>
+      </c>
+      <c r="R53">
+        <v>5512989</v>
+      </c>
+      <c r="S53" t="s">
+        <v>52</v>
+      </c>
+      <c r="T53" t="s">
+        <v>53</v>
+      </c>
+      <c r="U53" t="s">
+        <v>54</v>
+      </c>
+      <c r="V53" t="s">
+        <v>55</v>
+      </c>
+      <c r="W53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54">
+        <v>0.937084818474617</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0.771186440677966</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
         <v>16.75</v>
       </c>
-      <c r="K52">
-        <v>-0.0402910725900672</v>
-      </c>
-      <c r="L52">
-        <v>-0.166310608956659</v>
-      </c>
-      <c r="M52">
-        <v>0.0999172757397626</v>
-      </c>
-      <c r="N52">
-        <v>-0.240543716955625</v>
-      </c>
-      <c r="O52" t="s">
-        <v>39</v>
-      </c>
-      <c r="P52" t="s">
+      <c r="K54">
+        <v>-0.116314903679083</v>
+      </c>
+      <c r="L54">
+        <v>-0.22217127870991</v>
+      </c>
+      <c r="M54">
+        <v>0.005000581438732</v>
+      </c>
+      <c r="N54">
+        <v>-0.6944173353975091</v>
+      </c>
+      <c r="O54" t="s">
+        <v>38</v>
+      </c>
+      <c r="P54" t="s">
         <v>49</v>
       </c>
-      <c r="Q52">
-        <v>1792183</v>
-      </c>
-      <c r="R52">
-        <v>5512989</v>
-      </c>
-      <c r="S52" t="s">
-        <v>53</v>
-      </c>
-      <c r="T52" t="s">
-        <v>54</v>
-      </c>
-      <c r="U52" t="s">
-        <v>55</v>
-      </c>
-      <c r="V52" t="s">
-        <v>56</v>
-      </c>
-      <c r="W52" t="s">
-        <v>61</v>
+      <c r="Q54">
+        <v>1792183</v>
+      </c>
+      <c r="R54">
+        <v>5512989</v>
+      </c>
+      <c r="S54" t="s">
+        <v>52</v>
+      </c>
+      <c r="T54" t="s">
+        <v>53</v>
+      </c>
+      <c r="U54" t="s">
+        <v>54</v>
+      </c>
+      <c r="V54" t="s">
+        <v>55</v>
+      </c>
+      <c r="W54" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
